--- a/exp_results/results_large/time_overall_large.xlsx
+++ b/exp_results/results_large/time_overall_large.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salex\Desktop\my_repo\Aircraft_Scheduling\project_report_experiments\results_large\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salex\Desktop\AC_Benchmarks\results_large\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8010F7F5-D492-4DC7-B018-59490EDF6FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0CF770CE-8063-45EF-A6AA-B0DC9AF93CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276"/>
   </bookViews>
   <sheets>
-    <sheet name="time_overall_large" sheetId="1" r:id="rId1"/>
+    <sheet name="time_overall_large - Copia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Instance</t>
   </si>
@@ -28,56 +28,92 @@
     <t>tmp12dte_kj.lp</t>
   </si>
   <si>
+    <t>tmp18z8y0q7.lp</t>
+  </si>
+  <si>
     <t>tmp1kxbw547.lp</t>
   </si>
   <si>
     <t>tmp4gyvs9na.lp</t>
   </si>
   <si>
+    <t>tmp55y58_gr.lp</t>
+  </si>
+  <si>
     <t>tmp5uomz897.lp</t>
   </si>
   <si>
+    <t>tmp8dkx4fer.lp</t>
+  </si>
+  <si>
+    <t>tmpajcujx0u.lp</t>
+  </si>
+  <si>
     <t>tmpc184hge_.lp</t>
   </si>
   <si>
     <t>tmpgm2awbar.lp</t>
   </si>
   <si>
+    <t>tmpkg9p0fou.lp</t>
+  </si>
+  <si>
     <t>tmpm_a65bgk.lp</t>
   </si>
   <si>
     <t>tmpmd16cj7h.lp</t>
   </si>
   <si>
+    <t>tmppamudayv.lp</t>
+  </si>
+  <si>
     <t>tmpq_qddey0.lp</t>
   </si>
   <si>
+    <t>tmpqkum3t0h.lp</t>
+  </si>
+  <si>
+    <t>tmpwuljzjtl.lp</t>
+  </si>
+  <si>
     <t>tmpxywxuung.lp</t>
   </si>
   <si>
-    <t>AS_chunks_20</t>
-  </si>
-  <si>
-    <t>RS_chunks_70</t>
-  </si>
-  <si>
-    <t>Time_window_60</t>
+    <t>tmpyg8pdvuf.lp</t>
+  </si>
+  <si>
+    <t>tmpzva5fpdp.lp</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
+  </si>
+  <si>
+    <t>3 maximum consecutive idle iterations</t>
+  </si>
+  <si>
+    <t>5 maximum consecutive idle iterations</t>
+  </si>
+  <si>
+    <t>AS Chunks 20</t>
+  </si>
+  <si>
+    <t>RS Chunks 70</t>
+  </si>
+  <si>
+    <t>Time-window 60</t>
   </si>
   <si>
     <t>Single-shot</t>
-  </si>
-  <si>
-    <t>Average:</t>
-  </si>
-  <si>
-    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +248,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +436,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -509,6 +564,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,8 +638,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,274 +1013,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>424.14935350000002</v>
+      </c>
+      <c r="D3" s="7">
+        <v>983.15090970000006</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1071.777435</v>
+      </c>
+      <c r="F3">
+        <v>3617.9390370000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1810.8092590000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1410.149682</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1572.06519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1156.4042919999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>961.72335099999998</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1225.9055430000001</v>
+      </c>
+      <c r="F4">
+        <v>3618.2451289999999</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>316.11986880000001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1151.3458639999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>838.17838619999998</v>
+      </c>
+      <c r="F5">
+        <v>3625.8502800000001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>895.82694630000003</v>
+      </c>
+      <c r="H5" s="8">
+        <v>505.45156880000002</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1035.748458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1106.6895919999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1427.786638</v>
+      </c>
+      <c r="E6" s="7">
+        <v>990.22496060000003</v>
+      </c>
+      <c r="F6">
+        <v>3620.45379</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1148.742399</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1232.132535</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1443.8824930000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1248.303253</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1307.4060950000001</v>
+      </c>
+      <c r="E7" s="7">
+        <v>986.411339</v>
+      </c>
+      <c r="F7">
+        <v>3620.0163470000002</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>630.48741010000003</v>
+      </c>
+      <c r="D8" s="7">
+        <v>625.18727639999997</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1330.889281</v>
+      </c>
+      <c r="F8">
+        <v>3621.8561570000002</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1090.9018470000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1432.53467</v>
+      </c>
+      <c r="I8" s="8">
+        <v>692.83097310000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>901.24687840000001</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1514.8282200000001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>917.98998189999998</v>
+      </c>
+      <c r="F9">
+        <v>3628.455512</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>754.09828189999996</v>
+      </c>
+      <c r="D10" s="7">
+        <v>947.83181930000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>527.75687649999998</v>
+      </c>
+      <c r="F10">
+        <v>3622.6496550000002</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>813.04813620000004</v>
+      </c>
+      <c r="D11" s="7">
+        <v>376.73689719999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>861.91989279999996</v>
+      </c>
+      <c r="F11">
+        <v>3628.3275530000001</v>
+      </c>
+      <c r="G11" s="8">
+        <v>907.73816369999997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>773.14101979999998</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1621.3439249999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>865.35698600000001</v>
+      </c>
+      <c r="D12" s="7">
+        <v>668.79792380000004</v>
+      </c>
+      <c r="E12" s="7">
+        <v>691.31487200000004</v>
+      </c>
+      <c r="F12">
+        <v>3629.7135149999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1979.0878250000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>803.21298460000003</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1147.867092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>954.69572540000001</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1462.2846380000001</v>
+      </c>
+      <c r="E13" s="7">
+        <v>346.72878689999999</v>
+      </c>
+      <c r="F13">
+        <v>3636.9780009999999</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>688.88166209999997</v>
+      </c>
+      <c r="D14" s="7">
+        <v>441.30112270000001</v>
+      </c>
+      <c r="E14" s="7">
+        <v>762.59687589999999</v>
+      </c>
+      <c r="F14">
+        <v>3621.7900760000002</v>
+      </c>
+      <c r="G14" s="8">
+        <v>931.12998100000004</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1324.9539420000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1998.172094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>682.35169940000003</v>
+      </c>
+      <c r="D15" s="7">
+        <v>861.07041500000003</v>
+      </c>
+      <c r="E15" s="7">
+        <v>966.38161709999997</v>
+      </c>
+      <c r="F15">
+        <v>3622.2596020000001</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1369.7021649999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1361.992293</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1022.189553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>424.14935350000002</v>
-      </c>
-      <c r="D2">
-        <v>983.15090970000006</v>
-      </c>
-      <c r="E2">
-        <v>1071.777435</v>
-      </c>
-      <c r="F2">
-        <v>3617.9390370000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>316.11986880000001</v>
-      </c>
-      <c r="D3">
-        <v>1151.3458639999999</v>
-      </c>
-      <c r="E3">
-        <v>838.17838619999998</v>
-      </c>
-      <c r="F3">
-        <v>3625.8502800000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1106.6895919999999</v>
-      </c>
-      <c r="D4">
-        <v>1427.786638</v>
-      </c>
-      <c r="E4">
-        <v>990.22496060000003</v>
-      </c>
-      <c r="F4">
-        <v>3620.45379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>630.48741010000003</v>
-      </c>
-      <c r="D5">
-        <v>625.18727639999997</v>
-      </c>
-      <c r="E5">
-        <v>1330.889281</v>
-      </c>
-      <c r="F5">
-        <v>3621.8561570000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>813.04813620000004</v>
-      </c>
-      <c r="D6">
-        <v>376.73689719999999</v>
-      </c>
-      <c r="E6">
-        <v>861.91989279999996</v>
-      </c>
-      <c r="F6">
-        <v>3628.3275530000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>865.35698600000001</v>
-      </c>
-      <c r="D7">
-        <v>668.79792380000004</v>
-      </c>
-      <c r="E7">
-        <v>691.31487200000004</v>
-      </c>
-      <c r="F7">
-        <v>3629.7135149999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>688.88166209999997</v>
-      </c>
-      <c r="D8">
-        <v>441.30112270000001</v>
-      </c>
-      <c r="E8">
-        <v>762.59687589999999</v>
-      </c>
-      <c r="F8">
-        <v>3621.7900760000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>682.35169940000003</v>
-      </c>
-      <c r="D9">
-        <v>861.07041500000003</v>
-      </c>
-      <c r="E9">
-        <v>966.38161709999997</v>
-      </c>
-      <c r="F9">
-        <v>3622.2596020000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1492.921803</v>
+      </c>
+      <c r="D16" s="7">
+        <v>822.5037959</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1079.4814080000001</v>
+      </c>
+      <c r="F16">
+        <v>3625.1848960000002</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
         <v>786.84846900000002</v>
       </c>
-      <c r="D10">
+      <c r="D17" s="7">
         <v>678.48106029999997</v>
       </c>
-      <c r="E10">
+      <c r="E17" s="7">
         <v>858.04343649999998</v>
       </c>
-      <c r="F10">
+      <c r="F17">
         <v>3627.9792320000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
+      <c r="G17" s="8">
+        <v>1590.5367160000001</v>
+      </c>
+      <c r="H17" s="8">
+        <v>719.84847400000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1872.275277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <v>735.40079160000005</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1906.7257669999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>677.94268350000004</v>
+      </c>
+      <c r="F18">
+        <v>3631.180629</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
+        <v>975.84131649999995</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1841.471937</v>
+      </c>
+      <c r="E19" s="7">
+        <v>817.44867609999994</v>
+      </c>
+      <c r="F19">
+        <v>3622.2114499999998</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6">
         <v>896.01845070000002</v>
       </c>
-      <c r="D11">
+      <c r="D20" s="7">
         <v>1050.6231889999999</v>
       </c>
-      <c r="E11">
+      <c r="E20" s="7">
         <v>1166.8347080000001</v>
       </c>
-      <c r="F11">
+      <c r="F20">
         <v>3622.9062269999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>720.9951628</v>
-      </c>
-      <c r="D13">
-        <v>826.44812960000002</v>
-      </c>
-      <c r="E13">
-        <v>953.81614649999995</v>
-      </c>
-      <c r="F13">
-        <v>3623.9075469999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>218.12880910000001</v>
-      </c>
-      <c r="D14">
-        <v>313.2104152</v>
-      </c>
-      <c r="E14">
-        <v>184.23370159999999</v>
-      </c>
-      <c r="F14">
-        <v>3.6545908229999999</v>
+      <c r="G20" s="8">
+        <v>1439.609473</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1497.0414760000001</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1023.9046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1157.4407570000001</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1051.8003309999999</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1706.3327810000001</v>
+      </c>
+      <c r="F21">
+        <v>3633.2736960000002</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6">
+        <v>354.9169574</v>
+      </c>
+      <c r="D22" s="7">
+        <v>713.13636570000006</v>
+      </c>
+      <c r="E22" s="7">
+        <v>894.34952639999995</v>
+      </c>
+      <c r="F22">
+        <v>3631.8592410000001</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6">
+        <v>847.06108419999998</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1039.709681</v>
+      </c>
+      <c r="E24" s="7">
+        <v>935.92545340000004</v>
+      </c>
+      <c r="F24">
+        <v>3625.4565010000001</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1316.4084780000001</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1106.045865</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1343.0279660000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6">
+        <f>_xlfn.STDEV.P(C3:C22)</f>
+        <v>291.48839223937233</v>
+      </c>
+      <c r="D25" s="7">
+        <f>_xlfn.STDEV.P(D3:D22)</f>
+        <v>416.82243545202039</v>
+      </c>
+      <c r="E25" s="7">
+        <f>_xlfn.STDEV.P(E3:E22)</f>
+        <v>286.3381541955045</v>
+      </c>
+      <c r="F25">
+        <f>_xlfn.STDEV.P(F3:F22)</f>
+        <v>5.168379304867849</v>
+      </c>
+      <c r="G25" s="8">
+        <f>_xlfn.STDEV.P(G3:G22)</f>
+        <v>367.15745502791395</v>
+      </c>
+      <c r="H25" s="8">
+        <f>_xlfn.STDEV.P(H3:H22)</f>
+        <v>345.49589440559532</v>
+      </c>
+      <c r="I25" s="8">
+        <f>_xlfn.STDEV.P(I3:I22)</f>
+        <v>401.179212524604</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>